--- a/Hardware/PinOut_Carte.xlsx
+++ b/Hardware/PinOut_Carte.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10E7D22-99C1-41B8-B501-654716F64249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C10E7D22-99C1-41B8-B501-654716F64249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DA77B6-7030-4D5E-BA36-96EDCF9D1C53}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,37 +34,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nomenclature des composants</t>
-  </si>
-  <si>
-    <t>Projet Analyseur de Réseau Electrique</t>
-  </si>
-  <si>
-    <t>Références</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>Prix</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Projet Analyseur de réseau électrique</t>
   </si>
   <si>
-    <t>Pin out de la carte</t>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Vph1</t>
+  </si>
+  <si>
+    <t>Vph2</t>
+  </si>
+  <si>
+    <t>Vph3</t>
+  </si>
+  <si>
+    <t>Vcurrent_ph1</t>
+  </si>
+  <si>
+    <t>Vcurrent_ph2</t>
+  </si>
+  <si>
+    <t>Vcurrent_ph3</t>
+  </si>
+  <si>
+    <t>+15V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P1-1</t>
+  </si>
+  <si>
+    <t>P1-2</t>
+  </si>
+  <si>
+    <t>P1-3</t>
+  </si>
+  <si>
+    <t>P1-9</t>
+  </si>
+  <si>
+    <t>P1-10</t>
+  </si>
+  <si>
+    <t>P1-11</t>
+  </si>
+  <si>
+    <t>P1-15</t>
+  </si>
+  <si>
+    <t>P1-8</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P2-1</t>
+  </si>
+  <si>
+    <t>P2-2</t>
+  </si>
+  <si>
+    <t>P2-3</t>
+  </si>
+  <si>
+    <t>P2-9</t>
+  </si>
+  <si>
+    <t>P2-10</t>
+  </si>
+  <si>
+    <t>P2-11</t>
+  </si>
+  <si>
+    <t>P2-15</t>
+  </si>
+  <si>
+    <t>P2-8</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P3-8</t>
+  </si>
+  <si>
+    <t>P3-7</t>
+  </si>
+  <si>
+    <t>P3-6</t>
+  </si>
+  <si>
+    <t>P3-15</t>
+  </si>
+  <si>
+    <t>P3-14</t>
+  </si>
+  <si>
+    <t>P3-13</t>
+  </si>
+  <si>
+    <t>P3-9</t>
+  </si>
+  <si>
+    <t>P3-1</t>
+  </si>
+  <si>
+    <t>P1-7</t>
+  </si>
+  <si>
+    <t>P1-6</t>
+  </si>
+  <si>
+    <t>P1-14</t>
+  </si>
+  <si>
+    <t>P1-13</t>
+  </si>
+  <si>
+    <t>Carte d'acquisition</t>
+  </si>
+  <si>
+    <t>Cordon</t>
+  </si>
+  <si>
+    <t>Carte de traitement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +180,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +256,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,65 +595,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC16DD-76D0-4C23-90D5-767943A1EE18}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="1.6328125" customWidth="1"/>
+    <col min="7" max="7" width="1.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware/PinOut_Carte.xlsx
+++ b/Hardware/PinOut_Carte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1bfb2c967edd544/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C10E7D22-99C1-41B8-B501-654716F64249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DA77B6-7030-4D5E-BA36-96EDCF9D1C53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975C069-27FA-C045-8177-A416D966724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Projet Analyseur de réseau électrique</t>
   </si>
@@ -66,9 +66,6 @@
     <t>GND</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>P1-1</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>P1-8</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>P2-1</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>P2-8</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>P3-8</t>
   </si>
   <si>
@@ -166,6 +157,21 @@
   </si>
   <si>
     <t>Carte de traitement</t>
+  </si>
+  <si>
+    <t>Vcurrent_neutre</t>
+  </si>
+  <si>
+    <t>P1-4</t>
+  </si>
+  <si>
+    <t>P2-4</t>
+  </si>
+  <si>
+    <t>P3-5</t>
+  </si>
+  <si>
+    <t>P1-5</t>
   </si>
 </sst>
 </file>
@@ -256,32 +262,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,223 +597,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6A3A-C436-48FD-B3AE-2362EEAC2785}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="1.6328125" customWidth="1"/>
-    <col min="7" max="7" width="1.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -824,5 +828,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 Interne SNCF Réseau</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Hardware/PinOut_Carte.xlsx
+++ b/Hardware/PinOut_Carte.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliensaint-leger/Documents/GitHub/2324_Projet3DN_AnalyseurQualiteReseauElectrique/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975C069-27FA-C045-8177-A416D966724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1969D5C-684D-DD46-A016-22F6EF7DF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{25E8B7A7-E779-47F8-9B21-BDA3522EB2ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="SUBD-Traitement-Acquisition" sheetId="2" r:id="rId1"/>
+    <sheet name="SUBD-STM32" sheetId="3" r:id="rId2"/>
+    <sheet name="STM32-OLED" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Projet Analyseur de réseau électrique</t>
   </si>
@@ -172,6 +174,9 @@
   </si>
   <si>
     <t>P1-5</t>
+  </si>
+  <si>
+    <t>STM32G4</t>
   </si>
 </sst>
 </file>
@@ -598,7 +603,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,4 +837,140 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 Interne SNCF Réseau</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037DDEC-1FF1-6146-A58E-B57156B7A8AD}">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86C30E-5861-4140-BA52-DE99AFA6EA1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>